--- a/output/below_50/tRNA-Pro-AGG-2-1.xlsx
+++ b/output/below_50/tRNA-Pro-AGG-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
   <si>
     <t>chr1</t>
   </si>
@@ -210,135 +210,6 @@
   </si>
   <si>
     <t>67% (53)</t>
-  </si>
-  <si>
-    <t>167684916</t>
-  </si>
-  <si>
-    <t>167684939</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>167684919</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AAGAAAGAAAATTGAAAACG</t>
-  </si>
-  <si>
-    <t>97% (69)</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 28, Doench 2016: 97%, Moreno-Mateos: 50%</t>
-  </si>
-  <si>
-    <t>76727453280</t>
-  </si>
-  <si>
-    <t>167685025</t>
-  </si>
-  <si>
-    <t>167685048</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>167685045</t>
-  </si>
-  <si>
-    <t>TGTAATTGTATTTCTATTCA</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>5% (26)</t>
-  </si>
-  <si>
-    <t>1% (4)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 43, Doench 2016: 5%, Moreno-Mateos: 1%</t>
-  </si>
-  <si>
-    <t>2.24561E+11</t>
-  </si>
-  <si>
-    <t>167685151</t>
-  </si>
-  <si>
-    <t>167685174</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>167685171</t>
-  </si>
-  <si>
-    <t>TTTCTATAATGTTAAAATCT</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>4% (14)</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 34, Doench 2016: 30%, Moreno-Mateos: 4%</t>
-  </si>
-  <si>
-    <t>2.57443E+11</t>
-  </si>
-  <si>
-    <t>167685181</t>
-  </si>
-  <si>
-    <t>167685204</t>
-  </si>
-  <si>
-    <t>167685184</t>
-  </si>
-  <si>
-    <t>AATATTACAATAAAAAATAT</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>11% (23)</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 16%, Moreno-Mateos: 11%</t>
   </si>
 </sst>
 </file>
@@ -383,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -861,242 +732,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>87</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>97</v>
-      </c>
-      <c r="R11" t="s">
-        <v>98</v>
-      </c>
-      <c r="S11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>107</v>
-      </c>
-      <c r="R12" t="s">
-        <v>108</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
